--- a/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
+++ b/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Dk Core UCUM Basic Units</t>
+    <t>DK Core UCUM Basic Units</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T21:51:35+01:00</t>
+    <t>2024-05-06T15:28:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
+++ b/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from UCUM" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:28:33+02:00</t>
+    <t>2024-12-11T09:54:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
+++ b/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T09:54:35+01:00</t>
+    <t>2024-12-11T10:20:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
+++ b/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T10:20:02+01:00</t>
+    <t>2025-02-01T19:23:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,6 +93,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>This material contains content from UCUM (http://ucum.org). UCUM is copyright © 1999-2024, Regenstrief Institute, Inc. and is available under the license at http://ucum.org/license.</t>
+  </si>
+  <si>
     <t>Immutable</t>
   </si>
   <si>
@@ -105,79 +108,40 @@
     <t>%</t>
   </si>
   <si>
-    <t>percent</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
-    <t>centimeter</t>
-  </si>
-  <si>
     <t>[in_i]</t>
   </si>
   <si>
-    <t>inch (international)</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
-    <t>kilogram</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
-    <t>gram</t>
-  </si>
-  <si>
     <t>[lb_av]</t>
   </si>
   <si>
-    <t>pound (US and British)</t>
-  </si>
-  <si>
     <t>Cel</t>
   </si>
   <si>
-    <t>degree Celsius</t>
-  </si>
-  <si>
     <t>[degF]</t>
   </si>
   <si>
-    <t>degree Fahrenheit</t>
-  </si>
-  <si>
     <t>mm[Hg]</t>
   </si>
   <si>
-    <t>millimeter of mercury</t>
-  </si>
-  <si>
     <t>/min</t>
   </si>
   <si>
-    <t>per minute</t>
-  </si>
-  <si>
     <t>kg/m2</t>
   </si>
   <si>
-    <t>kilogram / (meter ^ 2)</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
-    <t>square meter</t>
-  </si>
-  <si>
     <t>{fraction}</t>
-  </si>
-  <si>
-    <t>fraction</t>
   </si>
   <si>
     <t/>
@@ -436,14 +400,16 @@
       <c r="A14" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +431,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -473,122 +439,96 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>48</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>52</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
+++ b/fhir/core/ValueSet-dk-core-UCUM-BasicUnits.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
